--- a/ESTUDOS/CodigoInteligente/Material de leitura/DownLoad1/EXERCÍCIO PRÁTICO CADASTRANDO CONFIGURADOR DE CODIGOS.xlsx
+++ b/ESTUDOS/CodigoInteligente/Material de leitura/DownLoad1/EXERCÍCIO PRÁTICO CADASTRANDO CONFIGURADOR DE CODIGOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rogério\Documents\Workspace\ESTUDOS\CodigoInteligente\Material de leitura\DownLoad1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5125DDD2-618F-4A33-AA59-017772114200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AE2EB7-6E48-468F-A92E-39C909BF0F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{1454BD94-C78E-406D-8553-FD68EAE913FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1454BD94-C78E-406D-8553-FD68EAE913FE}"/>
   </bookViews>
   <sheets>
     <sheet name="ESPECIFICAÇÃO DA CODIFICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>ESPECIFICAÇÃO</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>NOTA: CADASTRO DO PREFIXO</t>
+  </si>
+  <si>
+    <t>CAMINHO NO MENU</t>
+  </si>
+  <si>
+    <t>ESTOQUES CUSTOS&gt;&gt;ATUALIZAÇÕES&gt;&gt;ENGENHARIA&gt;&gt;CODIGO INTELIGENTE</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,13 +185,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,12 +462,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8E06C3D-C534-4479-82EC-1E170E760345}" name="Tabela1" displayName="Tabela1" ref="A2:C10" totalsRowShown="0">
-  <autoFilter ref="A2:C10" xr:uid="{E8E06C3D-C534-4479-82EC-1E170E760345}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8E06C3D-C534-4479-82EC-1E170E760345}" name="Tabela1" displayName="Tabela1" ref="A2:D10" totalsRowShown="0">
+  <autoFilter ref="A2:D10" xr:uid="{E8E06C3D-C534-4479-82EC-1E170E760345}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BDA2F46D-DFB7-4CDA-AAC6-AEED342476E0}" name="TIPO"/>
     <tableColumn id="2" xr3:uid="{2F076B62-1FE1-4AFD-8748-CDF524CF935A}" name="1"/>
     <tableColumn id="3" xr3:uid="{85540132-4EDE-4102-98F8-9C344F8231E5}" name="TIPO DO PARAFUSO"/>
+    <tableColumn id="4" xr3:uid="{B33750FE-0B2E-4A7C-AF5D-0CF9E3C6D197}" name="ESTOQUES CUSTOS&gt;&gt;ATUALIZAÇÕES&gt;&gt;ENGENHARIA&gt;&gt;CODIGO INTELIGENTE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -752,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEFA87D-BBCB-4892-8CAA-20E256677739}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,9 +782,10 @@
     <col min="1" max="1" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,8 +795,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -786,8 +809,11 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -798,7 +824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -809,7 +835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -820,7 +846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -831,7 +857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -842,7 +868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -853,7 +879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -864,7 +890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -888,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CE63BB-20E4-4E38-ACC6-7BFA3C9A530F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -969,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3BBDD7-2063-4814-814F-93E7A937309E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
